--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/10/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.27</v>
+        <v>-21.582</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -505,10 +505,10 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.034000000000001</v>
+        <v>-7.759</v>
       </c>
       <c r="E4" t="n">
-        <v>12.652</v>
+        <v>13.265</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.891999999999999</v>
+        <v>-8.206999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.078</v>
+        <v>-20.987</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.368</v>
+        <v>-7.896000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.832</v>
+        <v>12.946</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.55</v>
+        <v>-20.654</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.868</v>
+        <v>-8.463999999999999</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.748</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="19">
